--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\fwf-futbin-best11-poc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70372D-80CD-42AE-83E0-426562F3B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C7CA6-9A8B-4257-B567-AF86595DB697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Process Utils</t>
+  </si>
+  <si>
+    <t>Futbin_Players</t>
+  </si>
+  <si>
+    <t>https://www.futbin.com/players</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -702,81 +708,88 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B11" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B16" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B21" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1748,6 +1761,7 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\fwf-futbin-best11-poc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C7CA6-9A8B-4257-B567-AF86595DB697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A751129-FE1B-4CB1-8B81-B04BEBCE1915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,6 +265,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,10 +289,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,8 +304,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,7 +623,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -696,7 +705,7 @@
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -704,7 +713,7 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1764,8 +1773,12 @@
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1DCAF074-4D60-4919-967C-36594315EEC7}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{79A2F2E4-6CE6-488B-AEF0-2B45F38D76DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
